--- a/webapp/app/src/app/nakajo/a00100/job/a00100/export/job/request/report/All.xlsx
+++ b/webapp/app/src/app/nakajo/a00100/job/a00100/export/job/request/report/All.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99407E6-2A81-4CCF-9796-4DE96C8B370F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1A0F4E-7CEB-4805-A5CF-936A637AF029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1410" windowWidth="21555" windowHeight="9660" activeTab="1" xr2:uid="{1A9F8E62-3B08-435D-8352-4D9FDD2CF833}"/>
+    <workbookView xWindow="4425" yWindow="1935" windowWidth="17850" windowHeight="9660" xr2:uid="{1A9F8E62-3B08-435D-8352-4D9FDD2CF833}"/>
   </bookViews>
   <sheets>
-    <sheet name="会員情報" sheetId="1" r:id="rId1"/>
+    <sheet name="会員情報" sheetId="3" r:id="rId1"/>
     <sheet name="テイクアウト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,102 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
-  <si>
-    <t>評価</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>日付</t>
-  </si>
-  <si>
-    <t>2ヶ月以内
-リピート率
-３ヶ月平均</t>
-    <rPh sb="2" eb="3">
-      <t>ゲ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘイキン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>以降180日
-以内の利用
-人数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30日以内の
-リピート率</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60日以内の
-リピート率</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90日以内の
-リピート率</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>120日以内の
-リピート率</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>150日以内の
-リピート率</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>180日以内の
-リピート率</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過去180日
-以内の利用
-人数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以降 30日
-以内の利用
-人数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以降 60日
-以内の利用
-人数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以降 90日
-以内の利用
-人数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以降120日
-以内の利用
-人数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以降150日
-以内の利用
-人数</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>分類</t>
@@ -201,9 +108,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -279,7 +185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,19 +195,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,35 +517,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F169716-15FC-4205-8C16-FD1A90781544}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A467492-CD1F-4E13-ABE1-047422BF4FF8}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="8" width="13.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11" max="18" width="11.5703125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
+    <col min="3" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="51" thickTop="1" thickBot="1">
+    <row r="1" spans="1:8" ht="34.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -659,57 +552,21 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" ht="12.75" thickTop="1">
+    <row r="2" spans="1:8" ht="12.75" thickTop="1">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -722,7 +579,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E5507E-6623-42ED-9D08-137F251FE5A9}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -734,42 +594,42 @@
   <sheetData>
     <row r="1" spans="1:9" ht="34.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" thickTop="1">
-      <c r="B2" s="4"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
